--- a/sofaplayer/Serie_A/Como_stats.xlsx
+++ b/sofaplayer/Serie_A/Como_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>125407</v>
       </c>
       <c r="E2" t="n">
-        <v>6.5666666666667</v>
+        <v>6.5846153846154</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4956</v>
+        <v>3.7297</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.35780121</v>
+        <v>0.39966601</v>
       </c>
       <c r="AB2" t="n">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
@@ -1113,22 +1113,22 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF2" t="n">
-        <v>77.900552486188</v>
+        <v>77.59562841530099</v>
       </c>
       <c r="AG2" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AH2" t="n">
         <v>53</v>
       </c>
       <c r="AI2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
         <v>3</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>40</v>
       </c>
       <c r="BA2" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>50.549450549451</v>
+        <v>53.125</v>
       </c>
       <c r="BC2" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BD2" t="n">
-        <v>52.307692307692</v>
+        <v>55.714285714286</v>
       </c>
       <c r="BE2" t="n">
         <v>12</v>
@@ -1197,22 +1197,22 @@
         <v>46.153846153846</v>
       </c>
       <c r="BG2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BH2" t="n">
         <v>14</v>
       </c>
       <c r="BI2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BK2" t="n">
         <v>1</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1227,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>78.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="BR2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS2" t="n">
         <v>1</v>
       </c>
       <c r="BT2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW2" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CA2" t="n">
         <v>2</v>
@@ -1335,13 +1335,13 @@
         <v>11</v>
       </c>
       <c r="DA2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB2" t="n">
-        <v>63.636363636364</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>62</v>
       </c>
       <c r="DG2" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>894863</v>
       </c>
       <c r="E4" t="n">
-        <v>6.9</v>
+        <v>6.8708333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1262</v>
+        <v>1319</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -1765,13 +1765,13 @@
         <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2281</v>
+        <v>7.2588</v>
       </c>
       <c r="L4" t="n">
-        <v>157.75</v>
+        <v>164.875</v>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="n">
         <v>18</v>
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>22.222222222222</v>
+        <v>21.621621621622</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.20817594</v>
+        <v>1.22362534</v>
       </c>
       <c r="AB4" t="n">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -1825,22 +1825,22 @@
         <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AF4" t="n">
-        <v>76.95852534562199</v>
+        <v>76.681614349776</v>
       </c>
       <c r="AG4" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AH4" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AJ4" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="n">
         <v>7</v>
@@ -1864,10 +1864,10 @@
         <v>4</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT4" t="n">
         <v>7</v>
@@ -1894,22 +1894,22 @@
         <v>70</v>
       </c>
       <c r="BB4" t="n">
-        <v>44.303797468354</v>
+        <v>43.478260869565</v>
       </c>
       <c r="BC4" t="n">
         <v>47</v>
       </c>
       <c r="BD4" t="n">
-        <v>44.339622641509</v>
+        <v>43.518518518519</v>
       </c>
       <c r="BE4" t="n">
         <v>23</v>
       </c>
       <c r="BF4" t="n">
-        <v>44.230769230769</v>
+        <v>43.396226415094</v>
       </c>
       <c r="BG4" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BH4" t="n">
         <v>17</v>
@@ -1933,28 +1933,28 @@
         <v>4</v>
       </c>
       <c r="BO4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>158.7</v>
+        <v>164.9</v>
       </c>
       <c r="BR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS4" t="n">
         <v>8</v>
       </c>
       <c r="BT4" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BW4" t="n">
         <v>1</v>
@@ -1966,19 +1966,19 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CA4" t="n">
         <v>3</v>
       </c>
       <c r="CB4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CC4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CK4" t="n">
         <v>2</v>
@@ -2029,10 +2029,10 @@
         <v>2</v>
       </c>
       <c r="CU4" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="CV4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="DG4" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>877835</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5611111111111</v>
+        <v>6.5684210526316</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>1.02</v>
       </c>
       <c r="L5" t="n">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="M5" t="n">
         <v>8</v>
@@ -2169,61 +2169,61 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.53544848</v>
+        <v>0.67506548</v>
       </c>
       <c r="AB5" t="n">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AF5" t="n">
-        <v>80.95238095238101</v>
+        <v>80.788177339901</v>
       </c>
       <c r="AG5" t="n">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="n">
         <v>2</v>
       </c>
       <c r="AL5" t="n">
-        <v>33.333333333333</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AM5" t="n">
         <v>4</v>
       </c>
       <c r="AN5" t="n">
-        <v>33.333333333333</v>
+        <v>30.769230769231</v>
       </c>
       <c r="AO5" t="n">
         <v>3</v>
       </c>
       <c r="AP5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS5" t="n">
         <v>8</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>4</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>52.941176470588</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BB5" t="n">
-        <v>37.5</v>
+        <v>39.0625</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
-        <v>42.222222222222</v>
+        <v>43.396226415094</v>
       </c>
       <c r="BE5" t="n">
         <v>2</v>
@@ -2265,7 +2265,7 @@
         <v>18.181818181818</v>
       </c>
       <c r="BG5" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="BH5" t="n">
         <v>6</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>118.1</v>
+        <v>124.8</v>
       </c>
       <c r="BR5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS5" t="n">
         <v>1</v>
       </c>
       <c r="BT5" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>9</v>
       </c>
       <c r="CC5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CD5" t="n">
         <v>3</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK5" t="n">
         <v>2</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS5" t="n">
         <v>17</v>
       </c>
       <c r="CT5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU5" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CV5" t="n">
         <v>9</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
+        <v>7</v>
+      </c>
+      <c r="DA5" t="n">
         <v>6</v>
       </c>
-      <c r="DA5" t="n">
-        <v>5</v>
-      </c>
       <c r="DB5" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>34</v>
       </c>
       <c r="DG5" t="n">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>1171451</v>
       </c>
       <c r="E6" t="n">
-        <v>7.3695652173913</v>
+        <v>7.3125</v>
       </c>
       <c r="F6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G6" t="n">
         <v>23</v>
       </c>
-      <c r="G6" t="n">
-        <v>22</v>
-      </c>
       <c r="H6" t="n">
-        <v>1952</v>
+        <v>2042</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
@@ -2477,22 +2477,22 @@
         <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>6.0594</v>
+        <v>6.3224</v>
       </c>
       <c r="L6" t="n">
-        <v>244</v>
+        <v>255.25</v>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>9.411764705882399</v>
+        <v>8.695652173913</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.26139354</v>
+        <v>3.27753144</v>
       </c>
       <c r="AB6" t="n">
-        <v>1481</v>
+        <v>1538</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -2537,22 +2537,22 @@
         <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>806</v>
+        <v>837</v>
       </c>
       <c r="AF6" t="n">
-        <v>82.83658787255899</v>
+        <v>82.87128712871301</v>
       </c>
       <c r="AG6" t="n">
-        <v>973</v>
+        <v>1010</v>
       </c>
       <c r="AH6" t="n">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="AI6" t="n">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="AJ6" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>22.727272727273</v>
+        <v>22.222222222222</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AS6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV6" t="n">
         <v>2</v>
@@ -2600,19 +2600,19 @@
         <v>48</v>
       </c>
       <c r="AZ6" t="n">
-        <v>54.545454545455</v>
+        <v>53.333333333333</v>
       </c>
       <c r="BA6" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BB6" t="n">
-        <v>52.159468438538</v>
+        <v>51.935483870968</v>
       </c>
       <c r="BC6" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BD6" t="n">
-        <v>51.908396946565</v>
+        <v>51.660516605166</v>
       </c>
       <c r="BE6" t="n">
         <v>21</v>
@@ -2621,10 +2621,10 @@
         <v>53.846153846154</v>
       </c>
       <c r="BG6" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="BH6" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BI6" t="n">
         <v>31</v>
@@ -2645,28 +2645,28 @@
         <v>7</v>
       </c>
       <c r="BO6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="BR6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS6" t="n">
         <v>14</v>
       </c>
       <c r="BT6" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BW6" t="n">
         <v>2</v>
@@ -2678,10 +2678,10 @@
         <v>8</v>
       </c>
       <c r="BZ6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CA6" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CB6" t="n">
         <v>32</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK6" t="n">
         <v>3</v>
@@ -2735,13 +2735,13 @@
         <v>40</v>
       </c>
       <c r="CS6" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="CT6" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CU6" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="CV6" t="n">
         <v>18</v>
@@ -2759,10 +2759,10 @@
         <v>42</v>
       </c>
       <c r="DA6" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DB6" t="n">
-        <v>54.385964912281</v>
+        <v>55.737704918033</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="DG6" t="n">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2808,47 +2808,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sergi Roberto</t>
+          <t>Martin Baturina</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>123976</v>
+        <v>1090019</v>
       </c>
       <c r="E7" t="n">
-        <v>6.63</v>
+        <v>7.13125</v>
       </c>
       <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>673</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6477000000000001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>168.25</v>
+      </c>
+      <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>265</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2860,163 +2860,163 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1614711</v>
+        <v>2.73921213</v>
       </c>
       <c r="AB7" t="n">
-        <v>302</v>
+        <v>495</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="AF7" t="n">
-        <v>93.10344827586199</v>
+        <v>88.732394366197</v>
       </c>
       <c r="AG7" t="n">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="AH7" t="n">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="AI7" t="n">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
         <v>4</v>
       </c>
       <c r="AL7" t="n">
-        <v>57.142857142857</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AM7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>38.888888888889</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
         <v>3</v>
       </c>
-      <c r="AN7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT7" t="n">
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
         <v>4</v>
       </c>
-      <c r="AU7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>2</v>
-      </c>
       <c r="AZ7" t="n">
+        <v>26.666666666667</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>43.373493975904</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>43.055555555556</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>94</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT7" t="n">
         <v>40</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>38.888888888889</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>27</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>18</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CA7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CB7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="CC7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD7" t="n">
         <v>1</v>
@@ -3064,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CK7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
         <v>0</v>
@@ -3088,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="CS7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CT7" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="CU7" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="CV7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DB7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="DG7" t="n">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2170157</v>
+        <v>2191958</v>
       </c>
       <c r="DK7" t="inlineStr">
         <is>
@@ -3164,188 +3164,188 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Martin Baturina</t>
+          <t>Sergi Roberto</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1090019</v>
+        <v>123976</v>
       </c>
       <c r="E8" t="n">
-        <v>7.16</v>
+        <v>6.63</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>583</v>
+        <v>265</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.1614711</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>302</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>243</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>93.10344827586199</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>261</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>131</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>112</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK8" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.75</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="AL8" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
         <v>8</v>
       </c>
-      <c r="N8" t="n">
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT8" t="n">
         <v>4</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2.51269013</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>418</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>258</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>86.86868686868701</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>297</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>93</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>165</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>84</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA8" t="n">
         <v>9</v>
       </c>
-      <c r="AN8" t="n">
-        <v>31.034482758621</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>32</v>
-      </c>
       <c r="BB8" t="n">
-        <v>44.444444444444</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>38.888888888889</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BG8" t="n">
         <v>27</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>44.262295081967</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>89</v>
       </c>
       <c r="BH8" t="n">
         <v>4</v>
       </c>
       <c r="BI8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -3354,127 +3354,127 @@
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>18</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC8" t="n">
         <v>5</v>
       </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>107.4</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>15</v>
-      </c>
-      <c r="BS8" t="n">
+      <c r="CD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
         <v>7</v>
       </c>
-      <c r="BT8" t="n">
-        <v>39</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>9</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>24</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>14</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>29</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>40</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>5</v>
-      </c>
       <c r="DA8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="DG8" t="n">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="DJ8" t="n">
-        <v>2191958</v>
+        <v>2170157</v>
       </c>
       <c r="DK8" t="inlineStr">
         <is>
@@ -3527,16 +3527,16 @@
         <v>1086286</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0047619047619</v>
+        <v>6.9727272727273</v>
       </c>
       <c r="F9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n">
         <v>21</v>
       </c>
-      <c r="G9" t="n">
-        <v>20</v>
-      </c>
       <c r="H9" t="n">
-        <v>1698</v>
+        <v>1755</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>1.3124</v>
       </c>
       <c r="L9" t="n">
-        <v>849</v>
+        <v>877.5</v>
       </c>
       <c r="M9" t="n">
         <v>10</v>
@@ -3593,40 +3593,40 @@
         <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.92589073</v>
+        <v>1.98197533</v>
       </c>
       <c r="AB9" t="n">
-        <v>1541</v>
+        <v>1626</v>
       </c>
       <c r="AC9" t="n">
         <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>1235</v>
+        <v>1312</v>
       </c>
       <c r="AF9" t="n">
-        <v>91.82156133829</v>
+        <v>91.87675070028</v>
       </c>
       <c r="AG9" t="n">
-        <v>1345</v>
+        <v>1428</v>
       </c>
       <c r="AH9" t="n">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="AI9" t="n">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="AJ9" t="n">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="AK9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL9" t="n">
-        <v>68.518518518519</v>
+        <v>67.241379310345</v>
       </c>
       <c r="AM9" t="n">
         <v>2</v>
@@ -3644,7 +3644,7 @@
         <v>5</v>
       </c>
       <c r="AR9" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AS9" t="n">
         <v>23</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" t="n">
         <v>8</v>
@@ -3674,25 +3674,25 @@
         <v>60</v>
       </c>
       <c r="BB9" t="n">
-        <v>44.444444444444</v>
+        <v>43.795620437956</v>
       </c>
       <c r="BC9" t="n">
         <v>53</v>
       </c>
       <c r="BD9" t="n">
-        <v>44.166666666667</v>
+        <v>43.801652892562</v>
       </c>
       <c r="BE9" t="n">
         <v>7</v>
       </c>
       <c r="BF9" t="n">
-        <v>46.666666666667</v>
+        <v>43.75</v>
       </c>
       <c r="BG9" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="BH9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BI9" t="n">
         <v>14</v>
@@ -3713,22 +3713,22 @@
         <v>9</v>
       </c>
       <c r="BO9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>147.1</v>
+        <v>153.4</v>
       </c>
       <c r="BR9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS9" t="n">
         <v>5</v>
       </c>
       <c r="BT9" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="CC9" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="CD9" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CK9" t="n">
         <v>2</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CS9" t="n">
         <v>13</v>
@@ -3809,10 +3809,10 @@
         <v>8</v>
       </c>
       <c r="CU9" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="CV9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="DA9" t="n">
         <v>20</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="DG9" t="n">
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>1800245</v>
       </c>
       <c r="E10" t="n">
-        <v>6.765</v>
+        <v>6.7761904761905</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
         <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>1267</v>
+        <v>1312</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3901,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.7204</v>
+        <v>2.7617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>3</v>
@@ -3949,34 +3949,34 @@
         <v>6</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.85689329</v>
+        <v>2.91645909</v>
       </c>
       <c r="AB10" t="n">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="AC10" t="n">
         <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="AF10" t="n">
-        <v>77.456647398844</v>
+        <v>77.932960893855</v>
       </c>
       <c r="AG10" t="n">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="AH10" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AI10" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AJ10" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
@@ -3985,22 +3985,22 @@
         <v>54.545454545455</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>22.5</v>
+        <v>23.255813953488</v>
       </c>
       <c r="AO10" t="n">
         <v>3</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>6</v>
       </c>
       <c r="AR10" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AS10" t="n">
         <v>7</v>
@@ -4021,43 +4021,43 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AZ10" t="n">
-        <v>40.25974025974</v>
+        <v>41.025641025641</v>
       </c>
       <c r="BA10" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BB10" t="n">
-        <v>44.508670520231</v>
+        <v>45.303867403315</v>
       </c>
       <c r="BC10" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="BD10" t="n">
-        <v>42.948717948718</v>
+        <v>43.827160493827</v>
       </c>
       <c r="BE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF10" t="n">
-        <v>58.823529411765</v>
+        <v>57.894736842105</v>
       </c>
       <c r="BG10" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="BH10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BI10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ10" t="n">
         <v>3</v>
       </c>
       <c r="BK10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL10" t="n">
         <v>1</v>
@@ -4069,28 +4069,28 @@
         <v>1</v>
       </c>
       <c r="BO10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>135.3</v>
+        <v>142.3</v>
       </c>
       <c r="BR10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS10" t="n">
         <v>6</v>
       </c>
       <c r="BT10" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BU10" t="n">
         <v>1</v>
       </c>
       <c r="BV10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CA10" t="n">
         <v>9</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK10" t="n">
         <v>3</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CS10" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CT10" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CU10" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="CV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>11</v>
       </c>
       <c r="DA10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DB10" t="n">
-        <v>68.75</v>
+        <v>72.222222222222</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="DG10" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>1177723</v>
       </c>
       <c r="E11" t="n">
-        <v>6.8636363636364</v>
+        <v>6.875</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4260,7 +4260,7 @@
         <v>1.5392</v>
       </c>
       <c r="L11" t="n">
-        <v>218.33333333333</v>
+        <v>229.33333333333</v>
       </c>
       <c r="M11" t="n">
         <v>13</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.24020429</v>
+        <v>1.24869061</v>
       </c>
       <c r="AB11" t="n">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
@@ -4317,22 +4317,22 @@
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AF11" t="n">
-        <v>74.050632911392</v>
+        <v>74.251497005988</v>
       </c>
       <c r="AG11" t="n">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="n">
         <v>4</v>
@@ -4344,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="AN11" t="n">
-        <v>22.222222222222</v>
+        <v>18.181818181818</v>
       </c>
       <c r="AO11" t="n">
         <v>3</v>
@@ -4356,10 +4356,10 @@
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
@@ -4377,22 +4377,22 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
-        <v>38.461538461538</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BA11" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="BB11" t="n">
-        <v>38.75</v>
+        <v>41.860465116279</v>
       </c>
       <c r="BC11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BD11" t="n">
-        <v>37.662337662338</v>
+        <v>40.963855421687</v>
       </c>
       <c r="BE11" t="n">
         <v>2</v>
@@ -4401,13 +4401,13 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG11" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BH11" t="n">
         <v>13</v>
       </c>
       <c r="BI11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ11" t="n">
         <v>2</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>75.5</v>
+        <v>82.5</v>
       </c>
       <c r="BR11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS11" t="n">
         <v>3</v>
       </c>
       <c r="BT11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4515,13 +4515,13 @@
         <v>7</v>
       </c>
       <c r="CS11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CT11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CU11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CV11" t="n">
         <v>1</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="DG11" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>859027</v>
       </c>
       <c r="E12" t="n">
-        <v>6.8722222222222</v>
+        <v>6.8684210526316</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>1.0012</v>
       </c>
       <c r="L12" t="n">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="M12" t="n">
         <v>12</v>
@@ -4661,10 +4661,10 @@
         <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.38514621</v>
+        <v>1.40273511</v>
       </c>
       <c r="AB12" t="n">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
@@ -4673,22 +4673,22 @@
         <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="AF12" t="n">
-        <v>87.96460176991199</v>
+        <v>88.27586206896601</v>
       </c>
       <c r="AG12" t="n">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="AH12" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AI12" t="n">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="AJ12" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AK12" t="n">
         <v>4</v>
@@ -4700,19 +4700,19 @@
         <v>7</v>
       </c>
       <c r="AN12" t="n">
-        <v>29.166666666667</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AS12" t="n">
         <v>10</v>
@@ -4739,25 +4739,25 @@
         <v>60</v>
       </c>
       <c r="BA12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BB12" t="n">
-        <v>51.041666666667</v>
+        <v>51.020408163265</v>
       </c>
       <c r="BC12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD12" t="n">
-        <v>52.325581395349</v>
+        <v>52.873563218391</v>
       </c>
       <c r="BE12" t="n">
         <v>4</v>
       </c>
       <c r="BF12" t="n">
-        <v>40</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BG12" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BH12" t="n">
         <v>13</v>
@@ -4787,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>123.7</v>
+        <v>130.5</v>
       </c>
       <c r="BR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS12" t="n">
         <v>5</v>
@@ -4874,13 +4874,13 @@
         <v>20</v>
       </c>
       <c r="CT12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CU12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CV12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4895,10 +4895,10 @@
         <v>15</v>
       </c>
       <c r="DA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB12" t="n">
-        <v>68.181818181818</v>
+        <v>69.565217391304</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="DG12" t="n">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>911848</v>
       </c>
       <c r="E13" t="n">
-        <v>7.0428571428571</v>
+        <v>7.0454545454545</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>1594</v>
+        <v>1684</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>3.9722</v>
       </c>
       <c r="L13" t="n">
-        <v>797</v>
+        <v>842</v>
       </c>
       <c r="M13" t="n">
         <v>21</v>
@@ -5017,61 +5017,61 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.94918561</v>
+        <v>3.00702751</v>
       </c>
       <c r="AB13" t="n">
-        <v>1363</v>
+        <v>1448</v>
       </c>
       <c r="AC13" t="n">
         <v>5</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>1028</v>
+        <v>1089</v>
       </c>
       <c r="AF13" t="n">
-        <v>90.41336851363199</v>
+        <v>90.223695111848</v>
       </c>
       <c r="AG13" t="n">
-        <v>1137</v>
+        <v>1207</v>
       </c>
       <c r="AH13" t="n">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AI13" t="n">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="AJ13" t="n">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="AK13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL13" t="n">
-        <v>55.555555555556</v>
+        <v>56.060606060606</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>32.692307692308</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AS13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
         <v>13</v>
@@ -5092,19 +5092,19 @@
         <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>65</v>
+        <v>61.904761904762</v>
       </c>
       <c r="BA13" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BB13" t="n">
-        <v>47.058823529412</v>
+        <v>47.552447552448</v>
       </c>
       <c r="BC13" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BD13" t="n">
-        <v>47.747747747748</v>
+        <v>48.305084745763</v>
       </c>
       <c r="BE13" t="n">
         <v>11</v>
@@ -5113,13 +5113,13 @@
         <v>44</v>
       </c>
       <c r="BG13" t="n">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="BH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -5137,22 +5137,22 @@
         <v>6</v>
       </c>
       <c r="BO13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>147.9</v>
+        <v>155</v>
       </c>
       <c r="BR13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS13" t="n">
         <v>3</v>
       </c>
       <c r="BT13" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="CC13" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="CD13" t="n">
         <v>34</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CK13" t="n">
         <v>2</v>
@@ -5224,16 +5224,16 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CS13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT13" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CU13" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="CV13" t="n">
         <v>14</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="DA13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DB13" t="n">
-        <v>51.851851851852</v>
+        <v>53.333333333333</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="DG13" t="n">
-        <v>618</v>
+        <v>665</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>1403348</v>
       </c>
       <c r="E14" t="n">
-        <v>7.325</v>
+        <v>7.3142857142857</v>
       </c>
       <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
         <v>20</v>
       </c>
-      <c r="G14" t="n">
-        <v>19</v>
-      </c>
       <c r="H14" t="n">
-        <v>1708</v>
+        <v>1798</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -5328,7 +5328,7 @@
         <v>2.4309</v>
       </c>
       <c r="L14" t="n">
-        <v>854</v>
+        <v>899</v>
       </c>
       <c r="M14" t="n">
         <v>25</v>
@@ -5337,7 +5337,7 @@
         <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
         <v>8</v>
@@ -5373,64 +5373,64 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.24295065</v>
+        <v>1.29549885</v>
       </c>
       <c r="AB14" t="n">
-        <v>1605</v>
+        <v>1707</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>1228</v>
+        <v>1305</v>
       </c>
       <c r="AF14" t="n">
-        <v>91.369047619048</v>
+        <v>91.19496855345901</v>
       </c>
       <c r="AG14" t="n">
-        <v>1344</v>
+        <v>1431</v>
       </c>
       <c r="AH14" t="n">
-        <v>791</v>
+        <v>824</v>
       </c>
       <c r="AI14" t="n">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="AJ14" t="n">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="AK14" t="n">
         <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>52.380952380952</v>
+        <v>51.764705882353</v>
       </c>
       <c r="AM14" t="n">
         <v>2</v>
       </c>
       <c r="AN14" t="n">
-        <v>33.333333333333</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP14" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AU14" t="n">
         <v>7</v>
@@ -5445,34 +5445,34 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>66.666666666667</v>
+        <v>72.727272727273</v>
       </c>
       <c r="BA14" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="BB14" t="n">
-        <v>60.869565217391</v>
+        <v>61.691542288557</v>
       </c>
       <c r="BC14" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="BD14" t="n">
         <v>57.142857142857</v>
       </c>
       <c r="BE14" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="BF14" t="n">
-        <v>64</v>
+        <v>65.454545454545</v>
       </c>
       <c r="BG14" t="n">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="BH14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BI14" t="n">
         <v>5</v>
@@ -5493,22 +5493,22 @@
         <v>10</v>
       </c>
       <c r="BO14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>146.5</v>
+        <v>153.6</v>
       </c>
       <c r="BR14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="BU14" t="n">
         <v>1</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CK14" t="n">
         <v>3</v>
@@ -5580,19 +5580,19 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CT14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CU14" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CV14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5604,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="DA14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="DB14" t="n">
-        <v>59.459459459459</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="DG14" t="n">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="DH14" t="n">
         <v>12</v>
@@ -5663,16 +5663,16 @@
         <v>1142238</v>
       </c>
       <c r="E15" t="n">
-        <v>6.7055555555556</v>
+        <v>6.6842105263158</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>1396</v>
+        <v>1441</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5729,10 +5729,10 @@
         <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5448257399999999</v>
+        <v>0.55394076</v>
       </c>
       <c r="AB15" t="n">
-        <v>1152</v>
+        <v>1178</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
@@ -5741,22 +5741,22 @@
         <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="AF15" t="n">
-        <v>84.28571428571399</v>
+        <v>84.576485461441</v>
       </c>
       <c r="AG15" t="n">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="AH15" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AI15" t="n">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="AJ15" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -5768,7 +5768,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>17.241379310345</v>
+        <v>16.129032258065</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -5780,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="AR15" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AS15" t="n">
         <v>16</v>
@@ -5810,13 +5810,13 @@
         <v>73</v>
       </c>
       <c r="BB15" t="n">
-        <v>50</v>
+        <v>49.659863945578</v>
       </c>
       <c r="BC15" t="n">
         <v>56</v>
       </c>
       <c r="BD15" t="n">
-        <v>48.695652173913</v>
+        <v>48.275862068966</v>
       </c>
       <c r="BE15" t="n">
         <v>17</v>
@@ -5825,16 +5825,16 @@
         <v>54.838709677419</v>
       </c>
       <c r="BG15" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BH15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BI15" t="n">
         <v>14</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK15" t="n">
         <v>2</v>
@@ -5849,22 +5849,22 @@
         <v>7</v>
       </c>
       <c r="BO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>120.7</v>
+        <v>127</v>
       </c>
       <c r="BR15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS15" t="n">
         <v>3</v>
       </c>
       <c r="BT15" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>5</v>
       </c>
       <c r="CC15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CD15" t="n">
         <v>14</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK15" t="n">
         <v>2</v>
@@ -5942,10 +5942,10 @@
         <v>16</v>
       </c>
       <c r="CT15" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CU15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="CV15" t="n">
         <v>14</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="DG15" t="n">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6375,16 +6375,16 @@
         <v>798147</v>
       </c>
       <c r="E17" t="n">
-        <v>6.7315789473684</v>
+        <v>6.69</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>1107</v>
+        <v>1179</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>1.1591</v>
       </c>
       <c r="L17" t="n">
-        <v>1107</v>
+        <v>1179</v>
       </c>
       <c r="M17" t="n">
         <v>16</v>
@@ -6441,34 +6441,34 @@
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.15398564</v>
+        <v>2.27809564</v>
       </c>
       <c r="AB17" t="n">
-        <v>748</v>
+        <v>804</v>
       </c>
       <c r="AC17" t="n">
         <v>3</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="AF17" t="n">
-        <v>83.17580340264701</v>
+        <v>83.098591549296</v>
       </c>
       <c r="AG17" t="n">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="AH17" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AI17" t="n">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="AJ17" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="n">
         <v>15</v>
@@ -6477,13 +6477,13 @@
         <v>48.387096774194</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>34.883720930233</v>
+        <v>34.782608695652</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>7</v>
@@ -6492,13 +6492,13 @@
         <v>6</v>
       </c>
       <c r="AR17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AS17" t="n">
         <v>7</v>
       </c>
       <c r="AT17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
         <v>2</v>
@@ -6516,31 +6516,31 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>61.538461538462</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BA17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BB17" t="n">
-        <v>41.772151898734</v>
+        <v>41.463414634146</v>
       </c>
       <c r="BC17" t="n">
         <v>25</v>
       </c>
       <c r="BD17" t="n">
-        <v>41.666666666667</v>
+        <v>40.322580645161</v>
       </c>
       <c r="BE17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF17" t="n">
-        <v>42.105263157895</v>
+        <v>45</v>
       </c>
       <c r="BG17" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="BH17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI17" t="n">
         <v>10</v>
@@ -6561,22 +6561,22 @@
         <v>3</v>
       </c>
       <c r="BO17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>127.9</v>
+        <v>133.8</v>
       </c>
       <c r="BR17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS17" t="n">
         <v>3</v>
       </c>
       <c r="BT17" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>11</v>
       </c>
       <c r="CC17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CD17" t="n">
         <v>10</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CK17" t="n">
         <v>1</v>
@@ -6648,16 +6648,16 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CS17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CT17" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CU17" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CV17" t="n">
         <v>11</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="DG17" t="n">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -7080,341 +7080,341 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alberto Moreno</t>
+          <t>Marc-Oliver Kempf</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>229740</v>
+        <v>226974</v>
       </c>
       <c r="E19" t="n">
-        <v>6.9</v>
+        <v>7.0052631578947</v>
       </c>
       <c r="F19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1308</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2825</v>
+      </c>
+      <c r="L19" t="n">
+        <v>436</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>21.428571428571</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.30088856</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1154</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>869</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>90.23883696780899</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>963</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>592</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>277</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34.69387755102</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>58</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>83</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>79</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>59.398496240602</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>47.058823529412</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>67.07317073170699</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>111</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>94</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
         <v>8</v>
       </c>
-      <c r="G19" t="n">
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>38</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>13</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>54</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>27</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>49</v>
+      </c>
+      <c r="DA19" t="n">
         <v>7</v>
       </c>
-      <c r="H19" t="n">
-        <v>594</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.8623</v>
-      </c>
-      <c r="L19" t="n">
-        <v>594</v>
-      </c>
-      <c r="M19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.19104434</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>479</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>303</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>89.380530973451</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>339</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>166</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>137</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>46.666666666667</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>30.769230769231</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>41.666666666667</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>66</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>8</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>36</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC19" t="n">
+      <c r="DB19" t="n">
+        <v>53.846153846154</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>615</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>348</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>30</v>
+      </c>
+      <c r="DI19" t="n">
         <v>14</v>
       </c>
-      <c r="CD19" t="n">
-        <v>9</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>8</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>13</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>18</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>4</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>178</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>161</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>1</v>
-      </c>
       <c r="DJ19" t="n">
-        <v>2377606</v>
+        <v>2170131</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7436,317 +7436,317 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Marc-Oliver Kempf</t>
+          <t>Alberto Moreno</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>226974</v>
+        <v>229740</v>
       </c>
       <c r="E20" t="n">
-        <v>7.0611111111111</v>
+        <v>6.8222222222222</v>
       </c>
       <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>639</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8623</v>
+      </c>
+      <c r="L20" t="n">
+        <v>639</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>16.666666666667</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.19572076</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>507</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>321</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>88.429752066116</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>363</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>72</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41.176470588235</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>28.571428571429</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>20</v>
       </c>
-      <c r="G20" t="n">
+      <c r="BA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>44.117647058824</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>73</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>42</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>19</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>9</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT20" t="n">
         <v>14</v>
       </c>
-      <c r="H20" t="n">
-        <v>1218</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1975</v>
-      </c>
-      <c r="L20" t="n">
-        <v>406</v>
-      </c>
-      <c r="M20" t="n">
-        <v>12</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="CU20" t="n">
+        <v>19</v>
+      </c>
+      <c r="CV20" t="n">
         <v>4</v>
       </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.29300956</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1084</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="DA20" t="n">
         <v>4</v>
       </c>
-      <c r="AE20" t="n">
-        <v>813</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>89.933628318584</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>904</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>564</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>249</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>47</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34.69387755102</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>58</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>72</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>59.504132231405</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>22</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>48.888888888889</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>50</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>65.789473684211</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>107</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>127.1</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>91</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>38</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>13</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>49</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>26</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>49</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>6</v>
-      </c>
       <c r="DB20" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,19 +7758,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>586</v>
+        <v>185</v>
       </c>
       <c r="DG20" t="n">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="DH20" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2170131</v>
+        <v>2377606</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -8507,16 +8507,16 @@
         <v>599114</v>
       </c>
       <c r="E23" t="n">
-        <v>7.2782608695652</v>
+        <v>7.2625</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>2070</v>
+        <v>2160</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -8571,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.07873274</v>
+        <v>0.08200752</v>
       </c>
       <c r="AB23" t="n">
-        <v>1084</v>
+        <v>1126</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8583,28 +8583,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>692</v>
+        <v>721</v>
       </c>
       <c r="AF23" t="n">
-        <v>82.185273159145</v>
+        <v>82.494279176201</v>
       </c>
       <c r="AG23" t="n">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="AH23" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="AI23" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK23" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL23" t="n">
-        <v>51.557093425606</v>
+        <v>51.360544217687</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -8649,13 +8649,13 @@
         <v>100</v>
       </c>
       <c r="BA23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB23" t="n">
-        <v>93.333333333333</v>
+        <v>93.75</v>
       </c>
       <c r="BC23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD23" t="n">
         <v>100</v>
@@ -8667,13 +8667,13 @@
         <v>90.90909090909101</v>
       </c>
       <c r="BG23" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
       </c>
       <c r="BI23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ23" t="n">
         <v>0</v>
@@ -8685,28 +8685,28 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN23" t="n">
         <v>12</v>
       </c>
       <c r="BO23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BP23" t="n">
         <v>1</v>
       </c>
       <c r="BQ23" t="n">
-        <v>167.4</v>
+        <v>174.3</v>
       </c>
       <c r="BR23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8733,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CD23" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8745,16 +8745,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CH23" t="n">
         <v>40</v>
       </c>
       <c r="CI23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CJ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK23" t="n">
         <v>3</v>
@@ -8763,10 +8763,10 @@
         <v>9</v>
       </c>
       <c r="CM23" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CN23" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CO23" t="n">
         <v>18</v>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="DA23" t="n">
         <v>1</v>
@@ -8820,13 +8820,13 @@
         <v>4</v>
       </c>
       <c r="DF23" t="n">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="DG23" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DH23" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="DI23" t="n">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>3.4968</v>
+        <v>3.4262</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Serie_A/Como_stats.xlsx
+++ b/sofaplayer/Serie_A/Como_stats.xlsx
@@ -1035,7 +1035,7 @@
         <v>125407</v>
       </c>
       <c r="E2" t="n">
-        <v>6.5846153846154</v>
+        <v>6.5692307692308</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
@@ -1065,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0.39966601</v>
       </c>
       <c r="AB2" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>3</v>
@@ -1179,22 +1179,22 @@
         <v>40</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BB2" t="n">
-        <v>53.125</v>
+        <v>52.083333333333</v>
       </c>
       <c r="BC2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BD2" t="n">
-        <v>55.714285714286</v>
+        <v>55.072463768116</v>
       </c>
       <c r="BE2" t="n">
         <v>12</v>
       </c>
       <c r="BF2" t="n">
-        <v>46.153846153846</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG2" t="n">
         <v>74</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="BR2" t="n">
         <v>13</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="CU2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CV2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>11</v>
       </c>
       <c r="DA2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DB2" t="n">
-        <v>66.666666666667</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC2" t="n">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>894863</v>
       </c>
       <c r="E4" t="n">
-        <v>6.8708333333333</v>
+        <v>6.8791666666667</v>
       </c>
       <c r="F4" t="n">
         <v>24</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.22362534</v>
+        <v>1.22611084</v>
       </c>
       <c r="AB4" t="n">
         <v>448</v>
@@ -1891,10 +1891,10 @@
         <v>39.130434782609</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BB4" t="n">
-        <v>43.478260869565</v>
+        <v>43.827160493827</v>
       </c>
       <c r="BC4" t="n">
         <v>47</v>
@@ -1903,10 +1903,10 @@
         <v>43.518518518519</v>
       </c>
       <c r="BE4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BF4" t="n">
-        <v>43.396226415094</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG4" t="n">
         <v>145</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>164.9</v>
+        <v>165.1</v>
       </c>
       <c r="BR4" t="n">
         <v>24</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.67506548</v>
+        <v>0.67506648</v>
       </c>
       <c r="AB5" t="n">
         <v>304</v>
@@ -2223,7 +2223,7 @@
         <v>24</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>25</v>
       </c>
       <c r="BB5" t="n">
-        <v>39.0625</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
       </c>
       <c r="BD5" t="n">
-        <v>43.396226415094</v>
+        <v>42.592592592593</v>
       </c>
       <c r="BE5" t="n">
         <v>2</v>
@@ -2385,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="CU5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CV5" t="n">
         <v>9</v>
@@ -2477,7 +2477,7 @@
         <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>6.3224</v>
+        <v>6.3321</v>
       </c>
       <c r="L6" t="n">
         <v>255.25</v>
@@ -2525,7 +2525,7 @@
         <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.27753144</v>
+        <v>3.27753154</v>
       </c>
       <c r="AB6" t="n">
         <v>1538</v>
@@ -2833,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6477000000000001</v>
+        <v>0.6915</v>
       </c>
       <c r="L7" t="n">
         <v>168.25</v>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.73921213</v>
+        <v>2.74074613</v>
       </c>
       <c r="AB7" t="n">
         <v>495</v>
@@ -2893,22 +2893,22 @@
         <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF7" t="n">
-        <v>88.732394366197</v>
+        <v>88.450704225352</v>
       </c>
       <c r="AG7" t="n">
         <v>355</v>
       </c>
       <c r="AH7" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI7" t="n">
         <v>207</v>
       </c>
       <c r="AJ7" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="n">
         <v>4</v>
@@ -2977,7 +2977,7 @@
         <v>45.454545454545</v>
       </c>
       <c r="BG7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BH7" t="n">
         <v>6</v>
@@ -3016,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="BT7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>1086286</v>
       </c>
       <c r="E9" t="n">
-        <v>6.9727272727273</v>
+        <v>6.9681818181818</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
@@ -3593,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.98197533</v>
+        <v>1.98193883</v>
       </c>
       <c r="AB9" t="n">
         <v>1626</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>153.4</v>
+        <v>153.3</v>
       </c>
       <c r="BR9" t="n">
         <v>22</v>
@@ -3883,7 +3883,7 @@
         <v>1800245</v>
       </c>
       <c r="E10" t="n">
-        <v>6.7761904761905</v>
+        <v>6.7809523809524</v>
       </c>
       <c r="F10" t="n">
         <v>21</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.7617</v>
+        <v>2.7709</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.91645909</v>
+        <v>2.91645869</v>
       </c>
       <c r="AB10" t="n">
         <v>694</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>142.3</v>
+        <v>142.4</v>
       </c>
       <c r="BR10" t="n">
         <v>21</v>
@@ -5017,10 +5017,10 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.00702751</v>
+        <v>3.00691701</v>
       </c>
       <c r="AB13" t="n">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="AC13" t="n">
         <v>5</v>
@@ -5089,22 +5089,22 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>61.904761904762</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BA13" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BB13" t="n">
-        <v>47.552447552448</v>
+        <v>47.916666666667</v>
       </c>
       <c r="BC13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD13" t="n">
-        <v>48.305084745763</v>
+        <v>48.739495798319</v>
       </c>
       <c r="BE13" t="n">
         <v>11</v>
@@ -5227,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="CS13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CT13" t="n">
         <v>52</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="DG13" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>1403348</v>
       </c>
       <c r="E14" t="n">
-        <v>7.3142857142857</v>
+        <v>7.3095238095238</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.29549885</v>
+        <v>1.29556365</v>
       </c>
       <c r="AB14" t="n">
         <v>1707</v>
@@ -5445,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>72.727272727273</v>
+        <v>70</v>
       </c>
       <c r="BA14" t="n">
         <v>124</v>
@@ -5457,16 +5457,16 @@
         <v>61.691542288557</v>
       </c>
       <c r="BC14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>57.142857142857</v>
+        <v>56.666666666667</v>
       </c>
       <c r="BE14" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF14" t="n">
-        <v>65.454545454545</v>
+        <v>65.76576576576601</v>
       </c>
       <c r="BG14" t="n">
         <v>149</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>153.6</v>
+        <v>153.5</v>
       </c>
       <c r="BR14" t="n">
         <v>21</v>
@@ -5583,7 +5583,7 @@
         <v>8</v>
       </c>
       <c r="CS14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT14" t="n">
         <v>7</v>
@@ -6441,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.27809564</v>
+        <v>2.26797964</v>
       </c>
       <c r="AB17" t="n">
         <v>804</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.30088856</v>
+        <v>0.30061092</v>
       </c>
       <c r="AB19" t="n">
         <v>1154</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.19572076</v>
+        <v>0.1958333</v>
       </c>
       <c r="AB20" t="n">
         <v>507</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.08200752</v>
+        <v>0.08199948999999999</v>
       </c>
       <c r="AB23" t="n">
         <v>1126</v>
@@ -8667,7 +8667,7 @@
         <v>90.90909090909101</v>
       </c>
       <c r="BG23" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
@@ -8763,10 +8763,10 @@
         <v>9</v>
       </c>
       <c r="CM23" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CN23" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CO23" t="n">
         <v>18</v>
